--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H2">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N2">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q2">
-        <v>6.013866306762667</v>
+        <v>2180.039499055735</v>
       </c>
       <c r="R2">
-        <v>54.124796760864</v>
+        <v>19620.35549150161</v>
       </c>
       <c r="S2">
-        <v>0.001067138417729909</v>
+        <v>0.1768312358784805</v>
       </c>
       <c r="T2">
-        <v>0.001067138417729909</v>
+        <v>0.1768312358784805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H3">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N3">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q3">
-        <v>863.5337637808213</v>
+        <v>5539.518031253714</v>
       </c>
       <c r="R3">
-        <v>7771.803874027392</v>
+        <v>49855.66228128342</v>
       </c>
       <c r="S3">
-        <v>0.1532308846475635</v>
+        <v>0.4493312254489008</v>
       </c>
       <c r="T3">
-        <v>0.1532308846475635</v>
+        <v>0.4493312254489009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H4">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q4">
-        <v>1571.42230577147</v>
+        <v>29.46706191779255</v>
       </c>
       <c r="R4">
-        <v>14142.80075194323</v>
+        <v>265.203557260133</v>
       </c>
       <c r="S4">
-        <v>0.2788430981714258</v>
+        <v>0.002390184663575102</v>
       </c>
       <c r="T4">
-        <v>0.2788430981714258</v>
+        <v>0.002390184663575102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>485.864922</v>
       </c>
       <c r="I5">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J5">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N5">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q5">
-        <v>4.497003763058</v>
+        <v>645.726789916024</v>
       </c>
       <c r="R5">
-        <v>40.473033867522</v>
+        <v>5811.541109244215</v>
       </c>
       <c r="S5">
-        <v>0.0007979767483089391</v>
+        <v>0.05237733827765622</v>
       </c>
       <c r="T5">
-        <v>0.0007979767483089389</v>
+        <v>0.05237733827765622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J6">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N6">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q6">
-        <v>645.726789916024</v>
+        <v>1640.802929283046</v>
       </c>
       <c r="R6">
-        <v>5811.541109244215</v>
+        <v>14767.22636354741</v>
       </c>
       <c r="S6">
-        <v>0.1145818396564487</v>
+        <v>0.1330917214774438</v>
       </c>
       <c r="T6">
-        <v>0.1145818396564487</v>
+        <v>0.1330917214774438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J7">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N7">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q7">
-        <v>1175.066365286671</v>
+        <v>8.728131443799333</v>
       </c>
       <c r="R7">
-        <v>10575.59728758004</v>
+        <v>78.55318299419399</v>
       </c>
       <c r="S7">
-        <v>0.208511196926603</v>
+        <v>0.0007079716999556085</v>
       </c>
       <c r="T7">
-        <v>0.208511196926603</v>
+        <v>0.0007079716999556086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H8">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I8">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J8">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N8">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q8">
-        <v>3.360646433432667</v>
+        <v>640.445943637708</v>
       </c>
       <c r="R8">
-        <v>30.245817900894</v>
+        <v>5764.013492739372</v>
       </c>
       <c r="S8">
-        <v>0.0005963343271349728</v>
+        <v>0.05194898889486597</v>
       </c>
       <c r="T8">
-        <v>0.0005963343271349727</v>
+        <v>0.05194898889486597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H9">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I9">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J9">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N9">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q9">
-        <v>482.5567306235814</v>
+        <v>1627.384207653607</v>
       </c>
       <c r="R9">
-        <v>4343.010575612232</v>
+        <v>14646.45786888246</v>
       </c>
       <c r="S9">
-        <v>0.08562791384362728</v>
+        <v>0.132003278295258</v>
       </c>
       <c r="T9">
-        <v>0.08562791384362727</v>
+        <v>0.132003278295258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H10">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N10">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q10">
-        <v>878.136376488597</v>
+        <v>8.656751533330333</v>
       </c>
       <c r="R10">
-        <v>7903.227388397372</v>
+        <v>77.91076379997298</v>
       </c>
       <c r="S10">
-        <v>0.1558220644684676</v>
+        <v>0.000702181805877728</v>
       </c>
       <c r="T10">
-        <v>0.1558220644684675</v>
+        <v>0.0007021818058777281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H11">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I11">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J11">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N11">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q11">
-        <v>0.01279512615666667</v>
+        <v>2.136064005772</v>
       </c>
       <c r="R11">
-        <v>0.11515613541</v>
+        <v>19.224576051948</v>
       </c>
       <c r="S11">
-        <v>2.270447992188578E-06</v>
+        <v>0.0001732642175611074</v>
       </c>
       <c r="T11">
-        <v>2.270447992188578E-06</v>
+        <v>0.0001732642175611074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H12">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I12">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J12">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N12">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q12">
-        <v>1.837257911053333</v>
+        <v>5.427775543063</v>
       </c>
       <c r="R12">
-        <v>16.53532119948</v>
+        <v>48.849979887567</v>
       </c>
       <c r="S12">
-        <v>0.000326014646843493</v>
+        <v>0.0004402673702777174</v>
       </c>
       <c r="T12">
-        <v>0.000326014646843493</v>
+        <v>0.0004402673702777174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H13">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I13">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J13">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N13">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q13">
-        <v>3.343364421842222</v>
+        <v>0.02887265590633334</v>
       </c>
       <c r="R13">
-        <v>30.09027979658</v>
+        <v>0.259853903157</v>
       </c>
       <c r="S13">
-        <v>0.0005932676978547244</v>
+        <v>2.341970147431949E-06</v>
       </c>
       <c r="T13">
-        <v>0.0005932676978547244</v>
+        <v>2.34197014743195E-06</v>
       </c>
     </row>
   </sheetData>
